--- a/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-9.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-9.xlsx
@@ -319,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10495" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40502" uniqueCount="838">
   <si>
     <t>ANSPs</t>
   </si>
